--- a/biology/Zoologie/Amarante_de_Jameson/Amarante_de_Jameson.xlsx
+++ b/biology/Zoologie/Amarante_de_Jameson/Amarante_de_Jameson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagonosticta rhodopareia
 L'Amarante de Jameson (Lagonosticta rhodopareia) est une espèce de passereaux de la famille des Estrildidae, vivant en Afrique australe.
@@ -512,7 +524,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On trouve cet oiseau en Angola, au Botswana, au Tchad, en République démocratique du Congo, en Érythrée, en Éthiopie, au Kenya, au Malawi, au Mali, au Mozambique, en Namibie, en Afrique du Sud, au Soudan, au Swaziland, en Tanzanie, en Ouganda, en Zambie et au Zimbabwe.
 Cet oiseau est représenté par cinq sous-espèces :
